--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>14.87</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>14.88</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>14.89</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>14.89</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>14.9</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>14.92</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L18" t="n">
         <v>14.95999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>14.98999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>14.99999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>60</v>
+      </c>
       <c r="L21" t="n">
         <v>15.00999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20</v>
+      </c>
       <c r="L22" t="n">
         <v>15.02999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>15.03999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>15.04999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>15.05999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>15.05999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K27" t="n">
-        <v>27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L27" t="n">
         <v>15.06999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K28" t="n">
-        <v>27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>15.05999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>15.04999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K30" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>15.04999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K31" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>15.04999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K32" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L32" t="n">
         <v>15.05999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>1.299999999999995</v>
       </c>
       <c r="K33" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L33" t="n">
         <v>15.06999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.399999999999995</v>
       </c>
       <c r="K34" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>15.06999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>1.499999999999995</v>
       </c>
       <c r="K35" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>15.07999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K36" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>15.09999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>15.10999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>15.11999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>15.12999999999998</v>
@@ -2268,7 +2290,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K40" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>15.13999999999998</v>
@@ -2370,7 +2392,7 @@
         <v>1.699999999999994</v>
       </c>
       <c r="K42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>15.13999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>1.799999999999994</v>
       </c>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L43" t="n">
         <v>15.14999999999998</v>
@@ -2472,7 +2494,7 @@
         <v>1.899999999999993</v>
       </c>
       <c r="K44" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>15.15999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>1.899999999999993</v>
       </c>
       <c r="K45" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>15.15999999999998</v>
@@ -2574,7 +2596,7 @@
         <v>1.899999999999993</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>15.14999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>1.899999999999993</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>15.13999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.999999999999993</v>
       </c>
       <c r="K48" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>15.13999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>2.099999999999993</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>15.12999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>2.199999999999992</v>
       </c>
       <c r="K50" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>15.12999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>2.199999999999992</v>
       </c>
       <c r="K51" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L51" t="n">
         <v>15.13999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>2.199999999999992</v>
       </c>
       <c r="K52" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>15.14999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>2.199999999999992</v>
       </c>
       <c r="K53" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>15.14999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>2.299999999999994</v>
       </c>
       <c r="K54" t="n">
-        <v>33.33333333333346</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L54" t="n">
         <v>15.16999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>2.399999999999995</v>
       </c>
       <c r="K55" t="n">
-        <v>11.11111111111107</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L55" t="n">
         <v>15.17999999999998</v>
@@ -3084,7 +3106,7 @@
         <v>2.499999999999995</v>
       </c>
       <c r="K56" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>15.17999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K57" t="n">
-        <v>9.090909090909207</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L57" t="n">
         <v>15.19999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>9.090909090909207</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>15.20999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L59" t="n">
         <v>15.22999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K60" t="n">
-        <v>9.090909090909207</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L60" t="n">
         <v>15.23999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>2.799999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>15.23999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>16.66666666666669</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L62" t="n">
         <v>15.24999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>2.899999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909179</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>15.26</v>
@@ -3492,7 +3514,7 @@
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>15.24999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>9.090909090909003</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L65" t="n">
         <v>15.24999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>15.25999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>3.1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L67" t="n">
         <v>15.23999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>15.23999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>3.500000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-24.99999999999994</v>
       </c>
       <c r="L69" t="n">
         <v>15.21999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.600000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-14.28571428571414</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L70" t="n">
         <v>15.18999999999999</v>

--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,67 +394,42 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MA20</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -466,208 +441,201 @@
         <v>14.7</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E2" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F2" t="n">
-        <v>194250</v>
+        <v>20762.2427</v>
       </c>
       <c r="G2" t="n">
-        <v>14.65833333333336</v>
+        <v>161377.2521</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F3" t="n">
-        <v>64900</v>
+        <v>6410</v>
       </c>
       <c r="G3" t="n">
-        <v>14.66000000000002</v>
+        <v>161377.2521</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.7</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E4" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F4" t="n">
-        <v>40163.043</v>
+        <v>6410</v>
       </c>
       <c r="G4" t="n">
-        <v>14.66166666666669</v>
+        <v>161377.2521</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G5" t="n">
-        <v>14.66500000000002</v>
+        <v>161324.2521</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E6" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F6" t="n">
-        <v>161130.7718</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>14.67000000000002</v>
+        <v>163324.2521</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -686,31 +654,32 @@
         <v>14.8</v>
       </c>
       <c r="F7" t="n">
-        <v>34120.2064</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>14.67166666666668</v>
+        <v>163424.2521</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -729,3071 +698,2679 @@
         <v>14.8</v>
       </c>
       <c r="F8" t="n">
-        <v>51882.8948</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>14.67166666666668</v>
+        <v>163424.2521</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D9" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E9" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F9" t="n">
-        <v>96700</v>
+        <v>61</v>
       </c>
       <c r="G9" t="n">
-        <v>14.67333333333335</v>
+        <v>163424.2521</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.8</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E10" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>9716</v>
       </c>
       <c r="G10" t="n">
-        <v>14.67666666666668</v>
+        <v>163424.2521</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E11" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F11" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="G11" t="n">
-        <v>14.68000000000002</v>
+        <v>160424.2521</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E12" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F12" t="n">
-        <v>258878.4354</v>
+        <v>120326.7202</v>
       </c>
       <c r="G12" t="n">
-        <v>14.68166666666668</v>
+        <v>40097.53189999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5999999999999979</v>
+        <v>14.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>45647.6769</v>
       </c>
       <c r="G13" t="n">
-        <v>14.68666666666668</v>
+        <v>40097.53189999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6999999999999975</v>
+        <v>14.6</v>
       </c>
       <c r="K13" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L13" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F14" t="n">
-        <v>35823.202</v>
+        <v>2885.723</v>
       </c>
       <c r="G14" t="n">
-        <v>14.69166666666668</v>
+        <v>40097.53189999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6999999999999975</v>
+        <v>14.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E15" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F15" t="n">
-        <v>6670</v>
+        <v>30230.6624</v>
       </c>
       <c r="G15" t="n">
-        <v>14.69666666666668</v>
+        <v>9866.869499999986</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6999999999999975</v>
+        <v>14.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F16" t="n">
-        <v>40000</v>
+        <v>48586.5752</v>
       </c>
       <c r="G16" t="n">
-        <v>14.70500000000001</v>
+        <v>58453.44469999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7999999999999972</v>
+        <v>14.5</v>
       </c>
       <c r="K16" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F17" t="n">
-        <v>333.3333</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>14.71166666666668</v>
+        <v>58453.44469999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7999999999999972</v>
+        <v>14.6</v>
       </c>
       <c r="K17" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D18" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F18" t="n">
-        <v>463793</v>
+        <v>91976.30130000001</v>
       </c>
       <c r="G18" t="n">
-        <v>14.72166666666668</v>
+        <v>58453.44469999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L18" t="n">
-        <v>14.95999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C19" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="D19" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E19" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>11000</v>
+        <v>7170</v>
       </c>
       <c r="G19" t="n">
-        <v>14.73166666666668</v>
+        <v>51283.44469999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>14.98999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C20" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D20" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E20" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F20" t="n">
-        <v>24812.1534</v>
+        <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>14.74166666666668</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.099999999999996</v>
+        <v>14.5</v>
       </c>
       <c r="K20" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L20" t="n">
-        <v>14.99999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C21" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E21" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F21" t="n">
-        <v>54472.7041</v>
+        <v>4493.75</v>
       </c>
       <c r="G21" t="n">
-        <v>14.75000000000002</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.099999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K21" t="n">
-        <v>60</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15.00999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>14.94</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F22" t="n">
-        <v>39800</v>
+        <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>14.75666666666668</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.199999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K22" t="n">
-        <v>20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15.02999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>14.95</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D23" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E23" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F23" t="n">
-        <v>20750</v>
+        <v>300</v>
       </c>
       <c r="G23" t="n">
-        <v>14.76333333333335</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.199999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
-      </c>
-      <c r="L23" t="n">
-        <v>15.03999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>14.96</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E24" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F24" t="n">
-        <v>327836.3642</v>
+        <v>236.1833</v>
       </c>
       <c r="G24" t="n">
-        <v>14.77000000000001</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.199999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>15.04999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>14.97</v>
+        <v>1</v>
       </c>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F25" t="n">
-        <v>132597.2881</v>
+        <v>300</v>
       </c>
       <c r="G25" t="n">
-        <v>14.77666666666668</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.199999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>15.05999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>14.975</v>
+        <v>1</v>
       </c>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>136330.3013</v>
       </c>
       <c r="G26" t="n">
-        <v>14.78333333333335</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.199999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>15.05999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>14.98</v>
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C27" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D27" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E27" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F27" t="n">
-        <v>74839.98910000001</v>
+        <v>4139.0795</v>
       </c>
       <c r="G27" t="n">
-        <v>14.79166666666668</v>
+        <v>52283.44469999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.299999999999995</v>
+        <v>14.6</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L27" t="n">
-        <v>15.06999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>14.995</v>
+        <v>1</v>
       </c>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C28" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D28" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E28" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>14.80000000000001</v>
+        <v>52295.44469999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.299999999999995</v>
+        <v>14.6</v>
       </c>
       <c r="K28" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L28" t="n">
-        <v>15.05999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>15.01000000000001</v>
+        <v>1</v>
       </c>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C29" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D29" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E29" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F29" t="n">
-        <v>2270</v>
+        <v>600.9204999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>14.80666666666668</v>
+        <v>51694.52419999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.299999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15.04999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>15.02000000000001</v>
+        <v>1</v>
       </c>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C30" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="D30" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="E30" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F30" t="n">
-        <v>28900</v>
+        <v>6602.9853</v>
       </c>
       <c r="G30" t="n">
-        <v>14.81500000000001</v>
+        <v>45091.53889999999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.299999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15.04999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>15.02500000000001</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C31" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D31" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E31" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F31" t="n">
-        <v>31693</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>14.82500000000001</v>
+        <v>45102.53889999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.299999999999995</v>
+        <v>14.5</v>
       </c>
       <c r="K31" t="n">
-        <v>100</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15.04999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>15.03000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>14.97666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C32" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D32" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E32" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F32" t="n">
-        <v>331.1258</v>
+        <v>204</v>
       </c>
       <c r="G32" t="n">
-        <v>14.83166666666668</v>
+        <v>45102.53889999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.299999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15.05999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>15.04500000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>14.98666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C33" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D33" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E33" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F33" t="n">
-        <v>12200</v>
+        <v>3401.360544217687</v>
       </c>
       <c r="G33" t="n">
-        <v>14.83833333333335</v>
+        <v>45102.53889999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.299999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15.06999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>15.05500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>14.99666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C34" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D34" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E34" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F34" t="n">
-        <v>23414</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>14.84333333333334</v>
+        <v>45102.53889999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.399999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>15.06999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>15.06000000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.00333333333334</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D35" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E35" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F35" t="n">
-        <v>4000</v>
+        <v>7860</v>
       </c>
       <c r="G35" t="n">
-        <v>14.85000000000001</v>
+        <v>37242.53889999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.499999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L35" t="n">
-        <v>15.07999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>15.07000000000002</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15.01000000000001</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="D36" t="n">
-        <v>15.2</v>
+        <v>14.5</v>
       </c>
       <c r="E36" t="n">
-        <v>15.1</v>
+        <v>14.5</v>
       </c>
       <c r="F36" t="n">
-        <v>51900</v>
+        <v>79410.3515</v>
       </c>
       <c r="G36" t="n">
-        <v>14.86000000000001</v>
+        <v>-42167.81260000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.599999999999994</v>
+        <v>14.6</v>
       </c>
       <c r="K36" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L36" t="n">
-        <v>15.09999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>15.08000000000002</v>
-      </c>
-      <c r="N36" t="n">
-        <v>15.02000000000001</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C37" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D37" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F37" t="n">
-        <v>50000</v>
+        <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>14.87166666666668</v>
+        <v>-42155.81260000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.599999999999994</v>
+        <v>14.5</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15.10999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>15.09000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.03333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C38" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D38" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E38" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F38" t="n">
-        <v>50000</v>
+        <v>9448.6301</v>
       </c>
       <c r="G38" t="n">
-        <v>14.88166666666668</v>
+        <v>-42155.81260000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.599999999999994</v>
+        <v>14.6</v>
       </c>
       <c r="K38" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L38" t="n">
-        <v>15.11999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>15.09000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>15.04666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C39" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D39" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E39" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F39" t="n">
-        <v>21400</v>
+        <v>12603.3561</v>
       </c>
       <c r="G39" t="n">
-        <v>14.89166666666668</v>
+        <v>-42155.81260000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.599999999999994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>15.12999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>15.09000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>15.05666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C40" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="D40" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="E40" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F40" t="n">
-        <v>10291</v>
+        <v>57841.9863</v>
       </c>
       <c r="G40" t="n">
-        <v>14.90166666666668</v>
+        <v>-42155.81260000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.599999999999994</v>
+        <v>14.6</v>
       </c>
       <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>15.09500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>15.06333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C41" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D41" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E41" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F41" t="n">
-        <v>10000</v>
+        <v>38066.3813</v>
       </c>
       <c r="G41" t="n">
-        <v>14.91000000000001</v>
+        <v>-42155.81260000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.699999999999994</v>
+        <v>14.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>15.09500000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15.06666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C42" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D42" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E42" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F42" t="n">
-        <v>33697.1523</v>
+        <v>45229.7145</v>
       </c>
       <c r="G42" t="n">
-        <v>14.91833333333335</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.699999999999994</v>
+        <v>14.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>15.10000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15.07666666666668</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D43" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E43" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>14.92666666666668</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.799999999999994</v>
+        <v>14.7</v>
       </c>
       <c r="K43" t="n">
-        <v>50</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.14999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>15.11000000000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>15.08666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C44" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D44" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E44" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F44" t="n">
-        <v>658</v>
+        <v>14303.7212</v>
       </c>
       <c r="G44" t="n">
-        <v>14.93333333333335</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.899999999999993</v>
+        <v>14.7</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>15.15999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>15.11500000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>15.09333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C45" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D45" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E45" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F45" t="n">
-        <v>140</v>
+        <v>27699.0373</v>
       </c>
       <c r="G45" t="n">
-        <v>14.94000000000001</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.899999999999993</v>
+        <v>14.7</v>
       </c>
       <c r="K45" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>15.15999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>15.12000000000002</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15.10000000000001</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C46" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D46" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E46" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F46" t="n">
-        <v>102</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>14.94666666666668</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.899999999999993</v>
+        <v>14.7</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L46" t="n">
-        <v>15.14999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>15.12500000000002</v>
-      </c>
-      <c r="N46" t="n">
-        <v>15.10333333333335</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C47" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D47" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E47" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F47" t="n">
-        <v>298</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>14.95333333333335</v>
+        <v>3073.901899999983</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.899999999999993</v>
+        <v>14.7</v>
       </c>
       <c r="K47" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>15.12500000000002</v>
-      </c>
-      <c r="N47" t="n">
-        <v>15.10666666666668</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C48" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D48" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E48" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F48" t="n">
-        <v>265.8618</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>14.96166666666668</v>
+        <v>5073.901899999983</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.999999999999993</v>
+        <v>14.7</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>15.13000000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>15.10666666666668</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C49" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D49" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E49" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F49" t="n">
-        <v>94.33969999999999</v>
+        <v>3760</v>
       </c>
       <c r="G49" t="n">
-        <v>14.96666666666668</v>
+        <v>1313.901899999983</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.099999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L49" t="n">
-        <v>15.12999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>15.13000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>15.10333333333335</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C50" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E50" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>14.97500000000001</v>
+        <v>1313.901899999983</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.199999999999992</v>
+        <v>14.7</v>
       </c>
       <c r="K50" t="n">
-        <v>20</v>
-      </c>
-      <c r="L50" t="n">
-        <v>15.12999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>15.13500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>15.10666666666668</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C51" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D51" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E51" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>68487.6973</v>
+        <v>24600</v>
       </c>
       <c r="G51" t="n">
-        <v>14.98333333333335</v>
+        <v>1313.901899999983</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.199999999999992</v>
+        <v>14.7</v>
       </c>
       <c r="K51" t="n">
-        <v>20</v>
-      </c>
-      <c r="L51" t="n">
-        <v>15.13999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>15.14000000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15.11000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C52" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D52" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E52" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F52" t="n">
-        <v>21000</v>
+        <v>87443</v>
       </c>
       <c r="G52" t="n">
-        <v>14.99166666666668</v>
+        <v>88756.90189999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.199999999999992</v>
+        <v>14.7</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>15.14999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>15.14500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>15.11666666666668</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C53" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D53" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E53" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F53" t="n">
-        <v>30000</v>
+        <v>32350</v>
       </c>
       <c r="G53" t="n">
-        <v>14.99833333333335</v>
+        <v>56406.90189999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.199999999999992</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>15.14999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>15.15000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>15.12333333333334</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C54" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D54" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E54" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F54" t="n">
-        <v>78454.55565620915</v>
+        <v>10580</v>
       </c>
       <c r="G54" t="n">
-        <v>15.00833333333335</v>
+        <v>56406.90189999998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.299999999999994</v>
+        <v>14.7</v>
       </c>
       <c r="K54" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15.16999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>15.16500000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15.13333333333335</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C55" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D55" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E55" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F55" t="n">
-        <v>104436.3815</v>
+        <v>10400</v>
       </c>
       <c r="G55" t="n">
-        <v>15.01666666666668</v>
+        <v>56406.90189999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.399999999999995</v>
+        <v>14.7</v>
       </c>
       <c r="K55" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L55" t="n">
-        <v>15.17999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>15.17000000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15.14000000000001</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C56" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D56" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>13600</v>
       </c>
       <c r="G56" t="n">
-        <v>15.02333333333335</v>
+        <v>56406.90189999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.499999999999995</v>
+        <v>14.7</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>15.17999999999998</v>
+        <v>14.8</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>15.16500000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>15.14333333333335</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C57" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D57" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E57" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="F57" t="n">
-        <v>12</v>
+        <v>25900</v>
       </c>
       <c r="G57" t="n">
-        <v>15.03333333333334</v>
+        <v>56406.90189999998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.699999999999996</v>
+        <v>14.7</v>
       </c>
       <c r="K57" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L57" t="n">
-        <v>15.19999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>15.17000000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>15.15000000000001</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="D58" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="E58" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F58" t="n">
-        <v>44900</v>
+        <v>60471.7618</v>
       </c>
       <c r="G58" t="n">
-        <v>15.04333333333334</v>
+        <v>-4064.859900000018</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.699999999999996</v>
+        <v>14.7</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>15.20999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>15.17500000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15.15666666666668</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="C59" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="D59" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="E59" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>101688.5277</v>
       </c>
       <c r="G59" t="n">
-        <v>15.05500000000001</v>
+        <v>-4064.859900000018</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.699999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K59" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L59" t="n">
-        <v>15.22999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>15.18000000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>15.16333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="C60" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D60" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E60" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="F60" t="n">
-        <v>4555.6862</v>
+        <v>4580</v>
       </c>
       <c r="G60" t="n">
-        <v>15.06666666666667</v>
+        <v>515.1400999999823</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.699999999999996</v>
+        <v>14.6</v>
       </c>
       <c r="K60" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L60" t="n">
-        <v>15.23999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>15.18500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>15.17000000000001</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C61" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D61" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E61" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>194250</v>
       </c>
       <c r="G61" t="n">
-        <v>15.07500000000001</v>
+        <v>194765.1401</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.799999999999997</v>
+        <v>14.7</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>15.23999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>15.19000000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>15.17333333333334</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="C62" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D62" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E62" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>64900</v>
       </c>
       <c r="G62" t="n">
-        <v>15.08333333333334</v>
+        <v>194765.1401</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.899999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L62" t="n">
-        <v>15.24999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>15.20000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>15.18000000000001</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="C63" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D63" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E63" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="F63" t="n">
-        <v>3997.0588</v>
+        <v>40163.043</v>
       </c>
       <c r="G63" t="n">
-        <v>15.09166666666667</v>
+        <v>194765.1401</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.899999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>15.26</v>
+        <v>14.8</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>15.20500000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>15.18666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C64" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D64" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E64" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F64" t="n">
-        <v>7180</v>
+        <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>15.09833333333334</v>
+        <v>194778.1401</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>15.24999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>15.21000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>15.19333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C65" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D65" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E65" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>161130.7718</v>
       </c>
       <c r="G65" t="n">
-        <v>15.10333333333334</v>
+        <v>194778.1401</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>19.99999999999972</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15.24999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>15.21500000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>15.19666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C66" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D66" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E66" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F66" t="n">
-        <v>27693</v>
+        <v>34120.2064</v>
       </c>
       <c r="G66" t="n">
-        <v>15.10833333333334</v>
+        <v>160657.9337</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L66" t="n">
-        <v>15.25999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>15.22000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>15.19666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C67" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D67" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E67" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F67" t="n">
-        <v>82000</v>
+        <v>51882.8948</v>
       </c>
       <c r="G67" t="n">
-        <v>15.11333333333335</v>
+        <v>160657.9337</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-49.99999999999978</v>
-      </c>
-      <c r="L67" t="n">
-        <v>15.23999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>15.22000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15.19333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C68" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D68" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E68" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F68" t="n">
-        <v>2510</v>
+        <v>96700</v>
       </c>
       <c r="G68" t="n">
-        <v>15.12166666666668</v>
+        <v>257357.9337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>15.23999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>15.22500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>15.19666666666668</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C69" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F69" t="n">
-        <v>100205.2264</v>
+        <v>20000</v>
       </c>
       <c r="G69" t="n">
-        <v>15.12500000000001</v>
+        <v>277357.9337</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.500000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>-24.99999999999994</v>
-      </c>
-      <c r="L69" t="n">
-        <v>15.21999999999999</v>
+        <v>14.8</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>15.22500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>15.19333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C70" t="n">
         <v>15</v>
@@ -3802,42 +3379,1971 @@
         <v>15</v>
       </c>
       <c r="E70" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G70" t="n">
+        <v>277357.9337</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D71" t="n">
         <v>15</v>
       </c>
-      <c r="F70" t="n">
-        <v>5853.3333</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15.12500000000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J70" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-24.99999999999978</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.18999999999999</v>
-      </c>
-      <c r="M70" t="n">
-        <v>15.21500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>15.18666666666668</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+      <c r="E71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>258878.4354</v>
+      </c>
+      <c r="G71" t="n">
+        <v>18479.49830000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G72" t="n">
+        <v>19479.49830000001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F73" t="n">
+        <v>35823.202</v>
+      </c>
+      <c r="G73" t="n">
+        <v>19479.49830000001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>6670</v>
+      </c>
+      <c r="G74" t="n">
+        <v>19479.49830000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>15</v>
+      </c>
+      <c r="C75" t="n">
+        <v>15</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15</v>
+      </c>
+      <c r="E75" t="n">
+        <v>15</v>
+      </c>
+      <c r="F75" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G75" t="n">
+        <v>59479.49830000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>15</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>15</v>
+      </c>
+      <c r="E76" t="n">
+        <v>15</v>
+      </c>
+      <c r="F76" t="n">
+        <v>333.3333</v>
+      </c>
+      <c r="G76" t="n">
+        <v>59479.49830000001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>463793</v>
+      </c>
+      <c r="G77" t="n">
+        <v>523272.4983</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G78" t="n">
+        <v>523272.4983</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>24812.1534</v>
+      </c>
+      <c r="G79" t="n">
+        <v>498460.3449</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>54472.7041</v>
+      </c>
+      <c r="G80" t="n">
+        <v>498460.3449</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>15</v>
+      </c>
+      <c r="C81" t="n">
+        <v>15</v>
+      </c>
+      <c r="D81" t="n">
+        <v>15</v>
+      </c>
+      <c r="E81" t="n">
+        <v>15</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39800</v>
+      </c>
+      <c r="G81" t="n">
+        <v>458660.3449</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15</v>
+      </c>
+      <c r="D82" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20750</v>
+      </c>
+      <c r="G82" t="n">
+        <v>458660.3449</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>15</v>
+      </c>
+      <c r="F83" t="n">
+        <v>327836.3642</v>
+      </c>
+      <c r="G83" t="n">
+        <v>458660.3449</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15</v>
+      </c>
+      <c r="E84" t="n">
+        <v>15</v>
+      </c>
+      <c r="F84" t="n">
+        <v>132597.2881</v>
+      </c>
+      <c r="G84" t="n">
+        <v>458660.3449</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>15</v>
+      </c>
+      <c r="C85" t="n">
+        <v>15</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G85" t="n">
+        <v>458660.3449</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>74839.98910000001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2270</v>
+      </c>
+      <c r="G88" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>28900</v>
+      </c>
+      <c r="G89" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>31693</v>
+      </c>
+      <c r="G90" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>331.1258</v>
+      </c>
+      <c r="G91" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G92" t="n">
+        <v>533500.334</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>15</v>
+      </c>
+      <c r="F93" t="n">
+        <v>23414</v>
+      </c>
+      <c r="G93" t="n">
+        <v>510086.334</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>514086.334</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D95" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>51900</v>
+      </c>
+      <c r="G95" t="n">
+        <v>565986.334</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E96" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>565986.334</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F97" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>565986.334</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>21400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>565986.334</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>10291</v>
+      </c>
+      <c r="G99" t="n">
+        <v>565986.334</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G100" t="n">
+        <v>555986.334</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>33697.1523</v>
+      </c>
+      <c r="G101" t="n">
+        <v>555986.334</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>560986.334</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>658</v>
+      </c>
+      <c r="G103" t="n">
+        <v>560328.334</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>140</v>
+      </c>
+      <c r="G104" t="n">
+        <v>560328.334</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>102</v>
+      </c>
+      <c r="G105" t="n">
+        <v>560328.334</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1.01527027027027</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>298</v>
+      </c>
+      <c r="G106" t="n">
+        <v>560328.334</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F107" t="n">
+        <v>265.8618</v>
+      </c>
+      <c r="G107" t="n">
+        <v>560594.1958</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>94.33969999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>560499.8561</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12</v>
+      </c>
+      <c r="G109" t="n">
+        <v>560511.8561</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>68487.6973</v>
+      </c>
+      <c r="G110" t="n">
+        <v>560511.8561</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>560511.8561</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>560511.8561</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>78454.55565620915</v>
+      </c>
+      <c r="G113" t="n">
+        <v>638966.4117562091</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>104436.3815</v>
+      </c>
+      <c r="G114" t="n">
+        <v>534530.0302562091</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>533530.0302562091</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C116" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12</v>
+      </c>
+      <c r="G116" t="n">
+        <v>533542.0302562091</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>44900</v>
+      </c>
+      <c r="G117" t="n">
+        <v>533542.0302562091</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G118" t="n">
+        <v>533542.0302562091</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>161377.2521</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>161377.2521</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J3" t="n">
         <v>14.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>161377.2521</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>14.7</v>
       </c>
-      <c r="K4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,21 @@
         <v>161324.2521</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>14.7</v>
       </c>
-      <c r="K5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,20 +601,13 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +632,19 @@
         <v>163424.2521</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J7" t="n">
         <v>14.7</v>
       </c>
-      <c r="K7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,24 +671,19 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>14.7</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,20 +710,19 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,24 +747,15 @@
         <v>163424.2521</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,26 +780,15 @@
         <v>160424.2521</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,24 +815,13 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,24 +848,13 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -964,24 +881,13 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1008,24 +914,13 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1052,24 +947,13 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1096,24 +980,13 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1138,24 +1011,15 @@
         <v>58453.44469999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1180,24 +1044,15 @@
         <v>51283.44469999999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1224,24 +1079,13 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,24 +1112,13 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1310,26 +1143,15 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1354,26 +1176,15 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1398,26 +1209,19 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J24" t="n">
         <v>14.6</v>
       </c>
-      <c r="K24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1442,26 +1246,21 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>14.6</v>
       </c>
-      <c r="K25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1486,26 +1285,23 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J26" t="n">
         <v>14.6</v>
       </c>
-      <c r="K26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1530,26 +1326,23 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J27" t="n">
         <v>14.6</v>
       </c>
-      <c r="K27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1574,26 +1367,21 @@
         <v>52295.44469999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>14.6</v>
       </c>
-      <c r="K28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1618,24 +1406,21 @@
         <v>51694.52419999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,24 +1445,21 @@
         <v>45091.53889999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1702,26 +1484,21 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1746,24 +1523,21 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1788,24 +1562,21 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1830,24 +1601,21 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1872,24 +1640,21 @@
         <v>37242.53889999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,24 +1681,19 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>14.6</v>
       </c>
-      <c r="K36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1960,24 +1720,19 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2002,26 +1757,21 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>14.6</v>
       </c>
-      <c r="K38" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2048,22 +1798,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2088,26 +1835,23 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J40" t="n">
         <v>14.6</v>
       </c>
-      <c r="K40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2132,26 +1876,23 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J41" t="n">
         <v>14.6</v>
       </c>
-      <c r="K41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2176,26 +1917,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J42" t="n">
         <v>14.6</v>
       </c>
-      <c r="K42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2220,26 +1958,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2264,26 +1999,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2308,26 +2040,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2352,26 +2081,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2396,26 +2122,23 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2440,26 +2163,23 @@
         <v>5073.901899999983</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2486,22 +2206,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2526,26 +2243,23 @@
         <v>1313.901899999983</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J50" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2570,26 +2284,23 @@
         <v>1313.901899999983</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2614,26 +2325,23 @@
         <v>88756.90189999998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2660,22 +2368,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2700,26 +2405,23 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2744,26 +2446,21 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2788,26 +2485,21 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2834,24 +2526,19 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2876,26 +2563,23 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J58" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2920,26 +2604,23 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J59" t="n">
         <v>14.6</v>
       </c>
-      <c r="K59" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2964,26 +2645,23 @@
         <v>515.1400999999823</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J60" t="n">
         <v>14.6</v>
       </c>
-      <c r="K60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3008,26 +2686,23 @@
         <v>194765.1401</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="J61" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3052,24 +2727,23 @@
         <v>194765.1401</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
         <v>14.8</v>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3096,22 +2770,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3136,24 +2807,23 @@
         <v>194778.1401</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
         <v>14.8</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3180,22 +2850,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3222,22 +2889,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3264,22 +2928,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3304,24 +2965,23 @@
         <v>257357.9337</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
         <v>14.8</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3348,22 +3008,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3390,22 +3047,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3432,22 +3086,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3474,22 +3125,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3516,22 +3164,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3558,22 +3203,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3598,24 +3240,21 @@
         <v>59479.49830000001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.022397260273973</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3642,22 +3281,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3684,22 +3314,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3724,24 +3345,15 @@
         <v>523272.4983</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3766,24 +3378,15 @@
         <v>498460.3449</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3808,24 +3411,15 @@
         <v>498460.3449</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3850,24 +3444,15 @@
         <v>458660.3449</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3892,24 +3477,15 @@
         <v>458660.3449</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3934,24 +3510,15 @@
         <v>458660.3449</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3976,24 +3543,15 @@
         <v>458660.3449</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4020,22 +3578,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4062,22 +3611,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4104,22 +3644,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4146,22 +3677,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4188,22 +3710,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4230,22 +3743,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4270,24 +3774,15 @@
         <v>533500.334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4314,22 +3809,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4354,24 +3840,15 @@
         <v>510086.334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4398,22 +3875,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4440,22 +3908,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4482,22 +3941,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4524,22 +3974,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4566,22 +4007,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4606,24 +4038,15 @@
         <v>565986.334</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4650,22 +4073,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4692,22 +4106,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4734,22 +4139,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4776,22 +4172,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4818,22 +4205,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4858,24 +4236,15 @@
         <v>560328.334</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1.01527027027027</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4902,16 +4271,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4936,18 +4302,15 @@
         <v>560594.1958</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4972,18 +4335,15 @@
         <v>560499.8561</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5010,16 +4370,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5044,18 +4401,15 @@
         <v>560511.8561</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5082,16 +4436,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5118,16 +4469,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5154,16 +4502,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5188,18 +4533,15 @@
         <v>534530.0302562091</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5226,16 +4568,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5262,16 +4601,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5298,16 +4634,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5334,18 +4667,15 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>14.7</v>
@@ -521,9 +521,11 @@
         <v>161377.2521</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J4" t="n">
         <v>14.7</v>
       </c>
@@ -560,9 +562,11 @@
         <v>161324.2521</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J5" t="n">
         <v>14.7</v>
       </c>
@@ -601,8 +605,12 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,15 +640,19 @@
         <v>163424.2521</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14.7</v>
       </c>
       <c r="J7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,9 +683,11 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J8" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -710,15 +724,13 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>14.8</v>
+      </c>
       <c r="J9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,9 +761,17 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -780,11 +800,19 @@
         <v>160424.2521</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -815,9 +843,17 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,9 +884,17 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -881,9 +925,17 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -914,9 +966,17 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -947,9 +1007,17 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,9 +1048,17 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,11 +1087,17 @@
         <v>58453.44469999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1044,11 +1126,17 @@
         <v>51283.44469999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1079,9 +1167,17 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1206,17 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1146,8 +1248,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1179,8 +1287,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1209,15 +1323,17 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1366,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1285,17 +1401,15 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1326,13 +1440,11 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1371,7 +1483,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1406,11 +1518,11 @@
         <v>51694.52419999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1445,11 +1557,11 @@
         <v>45091.53889999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1484,11 +1596,13 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J31" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1523,11 +1637,11 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1562,11 +1676,11 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1601,11 +1715,11 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1640,11 +1754,11 @@
         <v>37242.53889999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1681,9 +1795,11 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J36" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1720,9 +1836,11 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J37" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1757,11 +1875,13 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J38" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1800,7 +1920,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1835,13 +1955,13 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>14.6</v>
       </c>
       <c r="J40" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1876,13 +1996,13 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>14.6</v>
       </c>
       <c r="J41" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1917,13 +2037,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>14.6</v>
       </c>
       <c r="J42" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1958,13 +2078,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>14.7</v>
       </c>
       <c r="J43" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1999,13 +2119,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>14.7</v>
       </c>
       <c r="J44" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2040,13 +2160,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>14.7</v>
       </c>
       <c r="J45" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2081,13 +2201,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>14.7</v>
       </c>
       <c r="J46" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2122,13 +2242,13 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>14.7</v>
       </c>
       <c r="J47" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2163,13 +2283,13 @@
         <v>5073.901899999983</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>14.7</v>
       </c>
       <c r="J48" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2208,7 +2328,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2243,13 +2363,11 @@
         <v>1313.901899999983</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2284,13 +2402,11 @@
         <v>1313.901899999983</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2325,13 +2441,11 @@
         <v>88756.90189999998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2370,7 +2484,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2405,13 +2519,11 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2450,7 +2562,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2489,7 +2601,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2524,11 +2636,11 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2563,13 +2675,13 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>14.7</v>
       </c>
       <c r="J58" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2604,13 +2716,13 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>14.6</v>
       </c>
       <c r="J59" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2645,13 +2757,13 @@
         <v>515.1400999999823</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>14.6</v>
       </c>
       <c r="J60" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2686,13 +2798,13 @@
         <v>194765.1401</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>14.7</v>
       </c>
       <c r="J61" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2727,13 +2839,11 @@
         <v>194765.1401</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2772,7 +2882,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2807,13 +2917,11 @@
         <v>194778.1401</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2852,7 +2960,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2891,7 +2999,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2930,7 +3038,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2965,13 +3073,11 @@
         <v>257357.9337</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3010,7 +3116,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3049,7 +3155,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3088,7 +3194,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3127,7 +3233,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3166,7 +3272,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3205,7 +3311,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3240,19 +3346,19 @@
         <v>59479.49830000001</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.022397260273973</v>
+        <v>1</v>
       </c>
       <c r="M75" t="inlineStr"/>
     </row>
@@ -3282,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3315,8 +3427,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3463,17 @@
         <v>523272.4983</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3502,17 @@
         <v>498460.3449</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3541,17 @@
         <v>498460.3449</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3444,11 +3580,17 @@
         <v>458660.3449</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3619,17 @@
         <v>458660.3449</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3510,11 +3658,17 @@
         <v>458660.3449</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3697,17 @@
         <v>458660.3449</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3579,8 +3739,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3612,8 +3778,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3645,8 +3817,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3678,8 +3856,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3711,8 +3895,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3744,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3774,11 +3970,17 @@
         <v>533500.334</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3810,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3840,11 +4048,17 @@
         <v>510086.334</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3873,13 +4087,19 @@
         <v>514086.334</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
-        <v>1</v>
+        <v>1.01527027027027</v>
       </c>
       <c r="M94" t="inlineStr"/>
     </row>
@@ -3939,7 +4159,7 @@
         <v>565986.334</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3972,7 +4192,7 @@
         <v>565986.334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4005,7 +4225,7 @@
         <v>565986.334</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4038,7 +4258,7 @@
         <v>565986.334</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4071,7 +4291,7 @@
         <v>555986.334</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4137,7 +4357,7 @@
         <v>560986.334</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4170,7 +4390,7 @@
         <v>560328.334</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4203,7 +4423,7 @@
         <v>560328.334</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4236,7 +4456,7 @@
         <v>560328.334</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4269,7 +4489,7 @@
         <v>560328.334</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4302,7 +4522,7 @@
         <v>560594.1958</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4335,7 +4555,7 @@
         <v>560499.8561</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4368,7 +4588,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4401,7 +4621,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4434,7 +4654,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4467,7 +4687,7 @@
         <v>560511.8561</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4500,7 +4720,7 @@
         <v>638966.4117562091</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4533,7 +4753,7 @@
         <v>534530.0302562091</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4566,7 +4786,7 @@
         <v>533530.0302562091</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4599,7 +4819,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4632,7 +4852,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4665,7 +4885,7 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4676,6 +4896,6 @@
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>161377.2521</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>161377.2521</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>161324.2521</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>163324.2521</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>163424.2521</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>163424.2521</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>163424.2521</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>14.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>163424.2521</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>160424.2521</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,19 +781,11 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -882,19 +814,11 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>9866.869499999986</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>58453.44469999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>58453.44469999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1090,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1170,12 +1050,10 @@
       <c r="I20" t="n">
         <v>14.5</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1209,9 +1087,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1248,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1284,12 +1158,12 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>14.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1323,12 +1197,12 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>14.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1362,12 +1236,12 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>14.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1404,9 +1278,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1443,9 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1482,9 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1521,9 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1560,9 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,14 +1460,10 @@
         <v>45102.53889999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,9 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1679,9 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,9 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1757,9 +1611,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1793,14 +1645,10 @@
         <v>-42167.81260000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1834,14 +1682,10 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1875,14 +1719,10 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1919,9 +1759,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1960,9 +1798,7 @@
       <c r="I40" t="n">
         <v>14.6</v>
       </c>
-      <c r="J40" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,14 +1832,10 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2037,14 +1869,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,14 +1906,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,14 +1943,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2160,14 +1980,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,14 +2017,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2242,14 +2054,10 @@
         <v>3073.901899999983</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2283,14 +2091,10 @@
         <v>5073.901899999983</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,9 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2366,9 +2168,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2405,9 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,9 +2242,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2483,9 +2279,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,9 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2561,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2600,9 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2639,9 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2675,14 +2461,10 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,9 +2503,7 @@
       <c r="I59" t="n">
         <v>14.6</v>
       </c>
-      <c r="J59" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,9 +2542,7 @@
       <c r="I60" t="n">
         <v>14.6</v>
       </c>
-      <c r="J60" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2803,9 +2581,7 @@
       <c r="I61" t="n">
         <v>14.7</v>
       </c>
-      <c r="J61" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2842,9 +2618,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,9 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2920,9 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2959,9 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,9 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3037,9 +2803,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,9 +2840,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,9 +2877,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,9 +2914,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3193,9 +2951,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3271,9 +3025,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,9 +3062,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3349,9 +3099,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,9 +3136,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,9 +3173,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,9 +3247,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,9 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3622,9 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,9 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,9 +3432,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3739,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,9 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3817,9 +3543,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,9 +3617,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,9 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,9 +3691,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4012,9 +3728,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4051,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4087,19 +3799,17 @@
         <v>514086.334</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.01527027027027</v>
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
     </row>
@@ -4130,7 +3840,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +3873,15 @@
         <v>565986.334</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3910,15 @@
         <v>565986.334</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +3947,15 @@
         <v>565986.334</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4262,7 +3988,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4291,11 +4021,15 @@
         <v>555986.334</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4328,7 +4062,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4357,11 +4095,15 @@
         <v>560986.334</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4390,11 +4132,15 @@
         <v>560328.334</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4423,11 +4169,15 @@
         <v>560328.334</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4456,11 +4206,15 @@
         <v>560328.334</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4489,11 +4243,15 @@
         <v>560328.334</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4522,11 +4280,15 @@
         <v>560594.1958</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4317,15 @@
         <v>560499.8561</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4354,15 @@
         <v>560511.8561</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4391,15 @@
         <v>560511.8561</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4428,15 @@
         <v>560511.8561</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4465,15 @@
         <v>560511.8561</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4720,11 +4502,15 @@
         <v>638966.4117562091</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4757,7 +4543,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4786,11 +4576,15 @@
         <v>533530.0302562091</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4613,15 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4852,11 +4650,15 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4885,17 +4687,21 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
       <c r="M118" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -451,7 +451,7 @@
         <v>161377.2521</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>161377.2521</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>161377.2521</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>161324.2521</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>163324.2521</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>163424.2521</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,17 @@
         <v>163424.2521</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,7 +720,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +753,7 @@
         <v>163424.2521</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +786,7 @@
         <v>160424.2521</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +819,7 @@
         <v>40097.53189999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1045,17 +1083,11 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1088,11 +1120,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1125,11 +1153,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1158,17 +1182,11 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,17 +1215,11 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1236,17 +1248,11 @@
         <v>52283.44469999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1285,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1318,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1351,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1390,11 +1384,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1417,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1464,11 +1450,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1501,11 +1483,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1538,11 +1516,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1575,11 +1549,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1612,11 +1582,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1649,11 +1615,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1686,11 +1648,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1681,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1760,11 +1714,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1793,17 +1743,11 @@
         <v>-42155.81260000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1836,11 +1780,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1813,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1846,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1947,11 +1879,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1984,11 +1912,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1945,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2058,11 +1978,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +2011,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +2044,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +2077,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +2110,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2239,13 +2139,15 @@
         <v>88756.90189999998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2350,9 +2252,11 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2387,9 +2291,11 @@
         <v>56406.90189999998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2461,9 +2367,11 @@
         <v>-4064.859900000018</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -3910,18 +3818,16 @@
         <v>565986.334</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -3951,11 +3857,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3984,15 +3886,11 @@
         <v>565986.334</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4021,15 +3919,11 @@
         <v>555986.334</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3956,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +3989,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4022,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4173,11 +4055,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4206,15 +4084,11 @@
         <v>560328.334</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4243,15 +4117,11 @@
         <v>560328.334</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4280,15 +4150,11 @@
         <v>560594.1958</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4317,15 +4183,11 @@
         <v>560499.8561</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4354,15 +4216,11 @@
         <v>560511.8561</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4391,15 +4249,11 @@
         <v>560511.8561</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4428,15 +4282,11 @@
         <v>560511.8561</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4465,15 +4315,11 @@
         <v>560511.8561</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4502,15 +4348,11 @@
         <v>638966.4117562091</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4539,15 +4381,11 @@
         <v>534530.0302562091</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4576,15 +4414,11 @@
         <v>533530.0302562091</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4613,15 +4447,11 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4650,15 +4480,11 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4687,15 +4513,11 @@
         <v>533542.0302562091</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest MITH.xlsx
+++ b/BackTest/2019-10-18 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>20762.2427</v>
       </c>
       <c r="G2" t="n">
-        <v>161377.2521</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>6410</v>
       </c>
       <c r="G3" t="n">
-        <v>161377.2521</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I3" t="n">
         <v>14.7</v>
       </c>
-      <c r="J3" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>6410</v>
       </c>
       <c r="G4" t="n">
-        <v>161377.2521</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I4" t="n">
         <v>14.7</v>
       </c>
-      <c r="J4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>53</v>
       </c>
       <c r="G5" t="n">
-        <v>161324.2521</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I5" t="n">
         <v>14.7</v>
       </c>
-      <c r="J5" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>2000</v>
       </c>
       <c r="G6" t="n">
-        <v>163324.2521</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>14.6</v>
       </c>
       <c r="I6" t="n">
         <v>14.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>163424.2521</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>14.7</v>
       </c>
       <c r="I7" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>14.6</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +655,21 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>163424.2521</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,18 +691,15 @@
         <v>61</v>
       </c>
       <c r="G9" t="n">
-        <v>163424.2521</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +721,15 @@
         <v>9716</v>
       </c>
       <c r="G10" t="n">
-        <v>163424.2521</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +751,15 @@
         <v>3000</v>
       </c>
       <c r="G11" t="n">
-        <v>160424.2521</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>120326.7202</v>
       </c>
       <c r="G12" t="n">
-        <v>40097.53189999999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,18 +811,15 @@
         <v>45647.6769</v>
       </c>
       <c r="G13" t="n">
-        <v>40097.53189999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,18 +841,15 @@
         <v>2885.723</v>
       </c>
       <c r="G14" t="n">
-        <v>40097.53189999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -915,18 +871,15 @@
         <v>30230.6624</v>
       </c>
       <c r="G15" t="n">
-        <v>9866.869499999986</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,18 +901,19 @@
         <v>48586.5752</v>
       </c>
       <c r="G16" t="n">
-        <v>58453.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>14.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -981,18 +935,21 @@
         <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>58453.44469999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,18 +971,21 @@
         <v>91976.30130000001</v>
       </c>
       <c r="G18" t="n">
-        <v>58453.44469999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,18 +1007,15 @@
         <v>7170</v>
       </c>
       <c r="G19" t="n">
-        <v>51283.44469999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1080,18 +1037,21 @@
         <v>1000</v>
       </c>
       <c r="G20" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,18 +1073,21 @@
         <v>4493.75</v>
       </c>
       <c r="G21" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1146,18 +1109,21 @@
         <v>300</v>
       </c>
       <c r="G22" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1179,18 +1145,21 @@
         <v>300</v>
       </c>
       <c r="G23" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1212,18 +1181,21 @@
         <v>236.1833</v>
       </c>
       <c r="G24" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1245,18 +1217,21 @@
         <v>300</v>
       </c>
       <c r="G25" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1278,18 +1253,21 @@
         <v>136330.3013</v>
       </c>
       <c r="G26" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,18 +1289,21 @@
         <v>4139.0795</v>
       </c>
       <c r="G27" t="n">
-        <v>52283.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1344,18 +1325,21 @@
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>52295.44469999999</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1377,18 +1361,19 @@
         <v>600.9204999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>51694.52419999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1410,18 +1395,21 @@
         <v>6602.9853</v>
       </c>
       <c r="G30" t="n">
-        <v>45091.53889999999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1443,18 +1431,21 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>45102.53889999999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1476,18 +1467,19 @@
         <v>204</v>
       </c>
       <c r="G32" t="n">
-        <v>45102.53889999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1509,18 +1501,19 @@
         <v>3401.360544217687</v>
       </c>
       <c r="G33" t="n">
-        <v>45102.53889999999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1542,18 +1535,19 @@
         <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>45102.53889999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1575,18 +1569,19 @@
         <v>7860</v>
       </c>
       <c r="G35" t="n">
-        <v>37242.53889999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1608,18 +1603,19 @@
         <v>79410.3515</v>
       </c>
       <c r="G36" t="n">
-        <v>-42167.81260000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1641,18 +1637,21 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>-42155.81260000002</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1674,18 +1673,21 @@
         <v>9448.6301</v>
       </c>
       <c r="G38" t="n">
-        <v>-42155.81260000002</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1707,18 +1709,21 @@
         <v>12603.3561</v>
       </c>
       <c r="G39" t="n">
-        <v>-42155.81260000002</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1740,18 +1745,21 @@
         <v>57841.9863</v>
       </c>
       <c r="G40" t="n">
-        <v>-42155.81260000002</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1773,18 +1781,19 @@
         <v>38066.3813</v>
       </c>
       <c r="G41" t="n">
-        <v>-42155.81260000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1806,18 +1815,19 @@
         <v>45229.7145</v>
       </c>
       <c r="G42" t="n">
-        <v>3073.901899999983</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1839,18 +1849,19 @@
         <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>3073.901899999983</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1872,18 +1883,19 @@
         <v>14303.7212</v>
       </c>
       <c r="G44" t="n">
-        <v>3073.901899999983</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1905,18 +1917,19 @@
         <v>27699.0373</v>
       </c>
       <c r="G45" t="n">
-        <v>3073.901899999983</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1938,18 +1951,21 @@
         <v>10000</v>
       </c>
       <c r="G46" t="n">
-        <v>3073.901899999983</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1971,18 +1987,21 @@
         <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>3073.901899999983</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2004,18 +2023,21 @@
         <v>2000</v>
       </c>
       <c r="G48" t="n">
-        <v>5073.901899999983</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2037,18 +2059,21 @@
         <v>3760</v>
       </c>
       <c r="G49" t="n">
-        <v>1313.901899999983</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2070,18 +2095,19 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>1313.901899999983</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2103,18 +2129,19 @@
         <v>24600</v>
       </c>
       <c r="G51" t="n">
-        <v>1313.901899999983</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2136,24 +2163,19 @@
         <v>87443</v>
       </c>
       <c r="G52" t="n">
-        <v>88756.90189999998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2175,22 +2197,19 @@
         <v>32350</v>
       </c>
       <c r="G53" t="n">
-        <v>56406.90189999998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2212,22 +2231,19 @@
         <v>10580</v>
       </c>
       <c r="G54" t="n">
-        <v>56406.90189999998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2249,24 +2265,19 @@
         <v>10400</v>
       </c>
       <c r="G55" t="n">
-        <v>56406.90189999998</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2288,24 +2299,19 @@
         <v>13600</v>
       </c>
       <c r="G56" t="n">
-        <v>56406.90189999998</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2327,22 +2333,19 @@
         <v>25900</v>
       </c>
       <c r="G57" t="n">
-        <v>56406.90189999998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2364,24 +2367,19 @@
         <v>60471.7618</v>
       </c>
       <c r="G58" t="n">
-        <v>-4064.859900000018</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2403,24 +2401,21 @@
         <v>101688.5277</v>
       </c>
       <c r="G59" t="n">
-        <v>-4064.859900000018</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2442,24 +2437,21 @@
         <v>4580</v>
       </c>
       <c r="G60" t="n">
-        <v>515.1400999999823</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2481,24 +2473,21 @@
         <v>194250</v>
       </c>
       <c r="G61" t="n">
-        <v>194765.1401</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2520,22 +2509,19 @@
         <v>64900</v>
       </c>
       <c r="G62" t="n">
-        <v>194765.1401</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2557,22 +2543,19 @@
         <v>40163.043</v>
       </c>
       <c r="G63" t="n">
-        <v>194765.1401</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2594,22 +2577,19 @@
         <v>13</v>
       </c>
       <c r="G64" t="n">
-        <v>194778.1401</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2631,22 +2611,19 @@
         <v>161130.7718</v>
       </c>
       <c r="G65" t="n">
-        <v>194778.1401</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2668,22 +2645,19 @@
         <v>34120.2064</v>
       </c>
       <c r="G66" t="n">
-        <v>160657.9337</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2705,22 +2679,19 @@
         <v>51882.8948</v>
       </c>
       <c r="G67" t="n">
-        <v>160657.9337</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2742,22 +2713,19 @@
         <v>96700</v>
       </c>
       <c r="G68" t="n">
-        <v>257357.9337</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2779,22 +2747,19 @@
         <v>20000</v>
       </c>
       <c r="G69" t="n">
-        <v>277357.9337</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2816,22 +2781,19 @@
         <v>8000</v>
       </c>
       <c r="G70" t="n">
-        <v>277357.9337</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2853,22 +2815,19 @@
         <v>258878.4354</v>
       </c>
       <c r="G71" t="n">
-        <v>18479.49830000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2890,22 +2849,19 @@
         <v>1000</v>
       </c>
       <c r="G72" t="n">
-        <v>19479.49830000001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2927,22 +2883,19 @@
         <v>35823.202</v>
       </c>
       <c r="G73" t="n">
-        <v>19479.49830000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2964,22 +2917,19 @@
         <v>6670</v>
       </c>
       <c r="G74" t="n">
-        <v>19479.49830000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3001,22 +2951,19 @@
         <v>40000</v>
       </c>
       <c r="G75" t="n">
-        <v>59479.49830000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,22 +2985,19 @@
         <v>333.3333</v>
       </c>
       <c r="G76" t="n">
-        <v>59479.49830000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3075,22 +3019,19 @@
         <v>463793</v>
       </c>
       <c r="G77" t="n">
-        <v>523272.4983</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3112,22 +3053,19 @@
         <v>11000</v>
       </c>
       <c r="G78" t="n">
-        <v>523272.4983</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3149,22 +3087,19 @@
         <v>24812.1534</v>
       </c>
       <c r="G79" t="n">
-        <v>498460.3449</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3186,22 +3121,19 @@
         <v>54472.7041</v>
       </c>
       <c r="G80" t="n">
-        <v>498460.3449</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3223,22 +3155,19 @@
         <v>39800</v>
       </c>
       <c r="G81" t="n">
-        <v>458660.3449</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3260,22 +3189,19 @@
         <v>20750</v>
       </c>
       <c r="G82" t="n">
-        <v>458660.3449</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,22 +3223,19 @@
         <v>327836.3642</v>
       </c>
       <c r="G83" t="n">
-        <v>458660.3449</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3334,22 +3257,19 @@
         <v>132597.2881</v>
       </c>
       <c r="G84" t="n">
-        <v>458660.3449</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3371,22 +3291,19 @@
         <v>2000</v>
       </c>
       <c r="G85" t="n">
-        <v>458660.3449</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3408,22 +3325,19 @@
         <v>74839.98910000001</v>
       </c>
       <c r="G86" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3445,22 +3359,19 @@
         <v>4000</v>
       </c>
       <c r="G87" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3482,22 +3393,19 @@
         <v>2270</v>
       </c>
       <c r="G88" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3519,22 +3427,19 @@
         <v>28900</v>
       </c>
       <c r="G89" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3556,22 +3461,19 @@
         <v>31693</v>
       </c>
       <c r="G90" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3593,22 +3495,19 @@
         <v>331.1258</v>
       </c>
       <c r="G91" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,22 +3529,19 @@
         <v>12200</v>
       </c>
       <c r="G92" t="n">
-        <v>533500.334</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3667,22 +3563,19 @@
         <v>23414</v>
       </c>
       <c r="G93" t="n">
-        <v>510086.334</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3704,22 +3597,19 @@
         <v>4000</v>
       </c>
       <c r="G94" t="n">
-        <v>514086.334</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3741,22 +3631,19 @@
         <v>51900</v>
       </c>
       <c r="G95" t="n">
-        <v>565986.334</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3778,22 +3665,19 @@
         <v>50000</v>
       </c>
       <c r="G96" t="n">
-        <v>565986.334</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3815,20 +3699,19 @@
         <v>50000</v>
       </c>
       <c r="G97" t="n">
-        <v>565986.334</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
       </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3850,18 +3733,19 @@
         <v>21400</v>
       </c>
       <c r="G98" t="n">
-        <v>565986.334</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3883,18 +3767,19 @@
         <v>10291</v>
       </c>
       <c r="G99" t="n">
-        <v>565986.334</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3916,18 +3801,19 @@
         <v>10000</v>
       </c>
       <c r="G100" t="n">
-        <v>555986.334</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3949,18 +3835,17 @@
         <v>33697.1523</v>
       </c>
       <c r="G101" t="n">
-        <v>555986.334</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3982,18 +3867,15 @@
         <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>560986.334</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,18 +3897,15 @@
         <v>658</v>
       </c>
       <c r="G103" t="n">
-        <v>560328.334</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4048,18 +3927,15 @@
         <v>140</v>
       </c>
       <c r="G104" t="n">
-        <v>560328.334</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4081,18 +3957,15 @@
         <v>102</v>
       </c>
       <c r="G105" t="n">
-        <v>560328.334</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4114,18 +3987,15 @@
         <v>298</v>
       </c>
       <c r="G106" t="n">
-        <v>560328.334</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4147,18 +4017,15 @@
         <v>265.8618</v>
       </c>
       <c r="G107" t="n">
-        <v>560594.1958</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4180,18 +4047,15 @@
         <v>94.33969999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>560499.8561</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4213,18 +4077,15 @@
         <v>12</v>
       </c>
       <c r="G109" t="n">
-        <v>560511.8561</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4246,18 +4107,15 @@
         <v>68487.6973</v>
       </c>
       <c r="G110" t="n">
-        <v>560511.8561</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4279,18 +4137,15 @@
         <v>21000</v>
       </c>
       <c r="G111" t="n">
-        <v>560511.8561</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4312,18 +4167,15 @@
         <v>30000</v>
       </c>
       <c r="G112" t="n">
-        <v>560511.8561</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4345,18 +4197,15 @@
         <v>78454.55565620915</v>
       </c>
       <c r="G113" t="n">
-        <v>638966.4117562091</v>
-      </c>
-      <c r="H113" t="n">
         <v>2</v>
       </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4378,18 +4227,15 @@
         <v>104436.3815</v>
       </c>
       <c r="G114" t="n">
-        <v>534530.0302562091</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4411,18 +4257,15 @@
         <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>533530.0302562091</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4444,18 +4287,15 @@
         <v>12</v>
       </c>
       <c r="G116" t="n">
-        <v>533542.0302562091</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4477,18 +4317,15 @@
         <v>44900</v>
       </c>
       <c r="G117" t="n">
-        <v>533542.0302562091</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4510,18 +4347,15 @@
         <v>1000</v>
       </c>
       <c r="G118" t="n">
-        <v>533542.0302562091</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
